--- a/evaluationStudy/analyses/WholeStudy.xlsx
+++ b/evaluationStudy/analyses/WholeStudy.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -103,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +137,12 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +207,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
@@ -759,11 +763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142542312"/>
-        <c:axId val="2119363080"/>
+        <c:axId val="2083333752"/>
+        <c:axId val="2083340664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142542312"/>
+        <c:axId val="2083333752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119363080"/>
+        <c:crossAx val="2083340664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -814,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119363080"/>
+        <c:axId val="2083340664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142542312"/>
+        <c:crossAx val="2083333752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -911,7 +915,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1386,11 +1389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2121686504"/>
-        <c:axId val="-2121627752"/>
+        <c:axId val="2083434696"/>
+        <c:axId val="2083440472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121686504"/>
+        <c:axId val="2083434696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1420,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1433,7 +1435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121627752"/>
+        <c:crossAx val="2083440472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1441,7 +1443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121627752"/>
+        <c:axId val="2083440472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,14 +1466,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121686504"/>
+        <c:crossAx val="2083434696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1481,7 +1482,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1602,11 +1602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129524456"/>
-        <c:axId val="2118501144"/>
+        <c:axId val="2058415768"/>
+        <c:axId val="2058430760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129524456"/>
+        <c:axId val="2058415768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,13 +1628,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118501144"/>
+        <c:crossAx val="2058430760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1642,7 +1641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118501144"/>
+        <c:axId val="2058430760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -1666,14 +1665,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129524456"/>
+        <c:crossAx val="2058415768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1.0"/>
@@ -1681,7 +1679,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1731,7 +1728,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1790,11 +1786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119061512"/>
-        <c:axId val="2119066968"/>
+        <c:axId val="2083473080"/>
+        <c:axId val="2083478488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119061512"/>
+        <c:axId val="2083473080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,13 +1812,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119066968"/>
+        <c:crossAx val="2083478488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1830,7 +1825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119066968"/>
+        <c:axId val="2083478488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1855,14 +1850,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119061512"/>
+        <c:crossAx val="2083473080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1.0"/>
@@ -1870,7 +1864,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1996,11 +1989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118614152"/>
-        <c:axId val="2143904296"/>
+        <c:axId val="2082677512"/>
+        <c:axId val="2082672088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118614152"/>
+        <c:axId val="2082677512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,13 +2015,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143904296"/>
+        <c:crossAx val="2082672088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2036,7 +2028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143904296"/>
+        <c:axId val="2082672088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2046,7 +2038,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -2063,7 +2054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118614152"/>
+        <c:crossAx val="2082677512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1.0"/>
@@ -2071,7 +2062,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2082,6 +2072,688 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400">
+                <a:latin typeface="Franklin Gothic Medium"/>
+                <a:cs typeface="Franklin Gothic Medium"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400">
+                <a:latin typeface="Franklin Gothic Medium"/>
+                <a:cs typeface="Franklin Gothic Medium"/>
+              </a:rPr>
+              <a:t>Exertion required (in keypresses) for discrete classes of navigation.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0618662789470351"/>
+          <c:y val="0.103460837887067"/>
+          <c:w val="0.748467733423402"/>
+          <c:h val="0.677601652252485"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ChibiPoint (Crosshairs+Flyouts)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$H$26:$H$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.130558241966773</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.256235371595269</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.166666666666667</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0833333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14213381090374</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.313822957230424</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.130558241966773</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$H$26:$H$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.130558241966773</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.256235371595269</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.166666666666667</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0833333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14213381090374</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.313822957230424</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.130558241966773</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$26:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[Within form] Immediate related traversal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[Within form] distant related traversal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visually early element</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Visually late element</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spatially close, markup distant traversal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Low visual indicator of focus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scrolled element</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Link surrounded by links</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ChibiPoint (Crosshairs ONLY)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$26:$J$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.14213381090374</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.142133810903741</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.174077655955698</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.130558241966773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.287579589334883</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.924894206344322</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.321769099721141</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.395683783551533</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$26:$J$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.14213381090374</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.142133810903741</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.174077655955698</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.130558241966773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.287579589334883</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.924894206344322</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.321769099721141</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.395683783551533</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$26:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[Within form] Immediate related traversal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[Within form] distant related traversal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visually early element</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Visually late element</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spatially close, markup distant traversal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Low visual indicator of focus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scrolled element</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Link surrounded by links</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$26:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabbing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$26:$L$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.691527109619775</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.800395996599796</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.846859915908007</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$26:$L$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.691527109619775</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.800395996599796</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.846859915908007</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$26:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[Within form] Immediate related traversal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[Within form] distant related traversal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visually early element</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Visually late element</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spatially close, markup distant traversal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Low visual indicator of focus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scrolled element</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Link surrounded by links</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$26:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2090831336"/>
+        <c:axId val="2090837112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2090831336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200">
+                    <a:latin typeface="Franklin Gothic Medium"/>
+                    <a:cs typeface="Franklin Gothic Medium"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2200">
+                    <a:latin typeface="Franklin Gothic Medium"/>
+                    <a:cs typeface="Franklin Gothic Medium"/>
+                  </a:rPr>
+                  <a:t>Navigation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2200" baseline="0">
+                    <a:latin typeface="Franklin Gothic Medium"/>
+                    <a:cs typeface="Franklin Gothic Medium"/>
+                  </a:rPr>
+                  <a:t> type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2200">
+                  <a:latin typeface="Franklin Gothic Medium"/>
+                  <a:cs typeface="Franklin Gothic Medium"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1800">
+                <a:latin typeface="Franklin Gothic Book"/>
+                <a:cs typeface="Franklin Gothic Book"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090837112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090837112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200">
+                    <a:latin typeface="Franklin Gothic Medium"/>
+                    <a:cs typeface="Franklin Gothic Medium"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2200">
+                    <a:latin typeface="Franklin Gothic Medium"/>
+                    <a:cs typeface="Franklin Gothic Medium"/>
+                  </a:rPr>
+                  <a:t>Number of keypresses required</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00603217158176943"/>
+              <c:y val="0.170660757569238"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000">
+                <a:latin typeface="Franklin Gothic Book"/>
+                <a:cs typeface="Franklin Gothic Book"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090831336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800">
+              <a:latin typeface="Franklin Gothic Book"/>
+              <a:cs typeface="Franklin Gothic Book"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2259,88 +2931,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Tabbing</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Tabbing</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>ChibiPoint (just crosshairs)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>ChibiPoint (just crosshairs)</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>ChibiPoint (crosshairs AND flyouts)</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>ChibiPoint (crosshairs AND flyouts)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>5</v>
-          </cell>
-          <cell r="D2">
-            <v>4</v>
-          </cell>
-          <cell r="E2">
-            <v>2</v>
-          </cell>
-          <cell r="F2">
-            <v>5</v>
-          </cell>
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Tabbing</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>ChibiPoint (just crosshairs)</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>ChibiPoint (crosshairs AND flyouts)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2667,7 +3292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+    <sheetView topLeftCell="E29" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -3171,7 +3796,7 @@
         <v>0.92489420634432207</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19:I19" si="5">STDEV(C62:C73)/SQRT(12)</f>
+        <f t="shared" ref="H19" si="5">STDEV(C62:C73)/SQRT(12)</f>
         <v>0.14213381090374042</v>
       </c>
       <c r="I19" s="1">
@@ -3340,27 +3965,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f>H3</f>
+        <f t="shared" ref="G26:G33" si="8">H3</f>
         <v>3</v>
       </c>
       <c r="H26" s="1">
-        <f>H14</f>
+        <f t="shared" ref="H26:H33" si="9">H14</f>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>G3</f>
+        <f t="shared" ref="I26:I33" si="10">G3</f>
         <v>5.666666666666667</v>
       </c>
       <c r="J26" s="1">
-        <f>G14</f>
+        <f t="shared" ref="J26:J33" si="11">G14</f>
         <v>0.14213381090374028</v>
       </c>
       <c r="K26" s="1">
-        <f>I3</f>
+        <f t="shared" ref="K26:K33" si="12">I3</f>
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <f>I14</f>
+        <f t="shared" ref="L26:L33" si="13">I14</f>
         <v>0</v>
       </c>
     </row>
@@ -3381,27 +4006,27 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>H4</f>
+        <f t="shared" si="8"/>
         <v>2.25</v>
       </c>
       <c r="H27" s="1">
-        <f>H15</f>
+        <f t="shared" si="9"/>
         <v>0.1305582419667734</v>
       </c>
       <c r="I27" s="1">
-        <f>G4</f>
+        <f t="shared" si="10"/>
         <v>4.666666666666667</v>
       </c>
       <c r="J27" s="1">
-        <f>G15</f>
+        <f t="shared" si="11"/>
         <v>0.1421338109037408</v>
       </c>
       <c r="K27" s="1">
-        <f>I4</f>
+        <f t="shared" si="12"/>
         <v>4.333333333333333</v>
       </c>
       <c r="L27" s="1">
-        <f>I15</f>
+        <f t="shared" si="13"/>
         <v>0.3333333333333332</v>
       </c>
     </row>
@@ -3422,27 +4047,27 @@
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <f>H5</f>
+        <f t="shared" si="8"/>
         <v>4.666666666666667</v>
       </c>
       <c r="H28" s="1">
-        <f>H16</f>
+        <f t="shared" si="9"/>
         <v>0.25623537159526943</v>
       </c>
       <c r="I28" s="1">
-        <f>G5</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J28" s="1">
-        <f>G16</f>
+        <f t="shared" si="11"/>
         <v>0.17407765595569785</v>
       </c>
       <c r="K28" s="1">
-        <f>I5</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L28" s="1">
-        <f>I16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3463,27 +4088,27 @@
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <f>H6</f>
+        <f t="shared" si="8"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="H29" s="1">
-        <f>H17</f>
+        <f t="shared" si="9"/>
         <v>0.1666666666666668</v>
       </c>
       <c r="I29" s="1">
-        <f>G6</f>
+        <f t="shared" si="10"/>
         <v>5.25</v>
       </c>
       <c r="J29" s="1">
-        <f>G17</f>
+        <f t="shared" si="11"/>
         <v>0.1305582419667734</v>
       </c>
       <c r="K29" s="1">
-        <f>I6</f>
+        <f t="shared" si="12"/>
         <v>72.5</v>
       </c>
       <c r="L29" s="1">
-        <f>I17</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3504,27 +4129,27 @@
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <f>H7</f>
+        <f t="shared" si="8"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="H30" s="1">
-        <f>H18</f>
+        <f t="shared" si="9"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="I30" s="1">
-        <f>G7</f>
+        <f t="shared" si="10"/>
         <v>4.416666666666667</v>
       </c>
       <c r="J30" s="1">
-        <f>G18</f>
+        <f t="shared" si="11"/>
         <v>0.28757958933488331</v>
       </c>
       <c r="K30" s="1">
-        <f>I7</f>
+        <f t="shared" si="12"/>
         <v>29.75</v>
       </c>
       <c r="L30" s="1">
-        <f>I18</f>
+        <f t="shared" si="13"/>
         <v>2.6915271096197753</v>
       </c>
     </row>
@@ -3545,27 +4170,27 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <f>H8</f>
+        <f t="shared" si="8"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="H31" s="1">
-        <f>H19</f>
+        <f t="shared" si="9"/>
         <v>0.14213381090374042</v>
       </c>
       <c r="I31" s="1">
-        <f>G8</f>
+        <f t="shared" si="10"/>
         <v>6.416666666666667</v>
       </c>
       <c r="J31" s="1">
-        <f>G19</f>
+        <f t="shared" si="11"/>
         <v>0.92489420634432207</v>
       </c>
       <c r="K31" s="1">
-        <f>I8</f>
+        <f t="shared" si="12"/>
         <v>48.5</v>
       </c>
       <c r="L31" s="1">
-        <f>I19</f>
+        <f t="shared" si="13"/>
         <v>8.8003959965997964</v>
       </c>
     </row>
@@ -3586,27 +4211,27 @@
         <v>6</v>
       </c>
       <c r="G32" s="1">
-        <f>H9</f>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="H32" s="1">
-        <f>H20</f>
+        <f t="shared" si="9"/>
         <v>0.31382295723042392</v>
       </c>
       <c r="I32" s="1">
-        <f>G9</f>
+        <f t="shared" si="10"/>
         <v>5.833333333333333</v>
       </c>
       <c r="J32" s="1">
-        <f>G20</f>
+        <f t="shared" si="11"/>
         <v>0.32176909972114121</v>
       </c>
       <c r="K32" s="1">
-        <f>I9</f>
+        <f t="shared" si="12"/>
         <v>23.333333333333332</v>
       </c>
       <c r="L32" s="1">
-        <f>I20</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -3627,27 +4252,27 @@
         <v>7</v>
       </c>
       <c r="G33" s="1">
-        <f>H10</f>
+        <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
       <c r="H33" s="1">
-        <f>H21</f>
+        <f t="shared" si="9"/>
         <v>0.1305582419667734</v>
       </c>
       <c r="I33" s="1">
-        <f>G10</f>
+        <f t="shared" si="10"/>
         <v>6.666666666666667</v>
       </c>
       <c r="J33" s="1">
-        <f>G21</f>
+        <f t="shared" si="11"/>
         <v>0.39568378355153283</v>
       </c>
       <c r="K33" s="1">
-        <f>I10</f>
+        <f t="shared" si="12"/>
         <v>48.666666666666664</v>
       </c>
       <c r="L33" s="1">
-        <f>I21</f>
+        <f t="shared" si="13"/>
         <v>0.84685991590800735</v>
       </c>
     </row>
@@ -5227,27 +5852,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f>H3</f>
+        <f t="shared" ref="G26:G33" si="8">H3</f>
         <v>5328.833333333333</v>
       </c>
       <c r="H26" s="1">
-        <f>H14</f>
+        <f t="shared" ref="H26:H33" si="9">H14</f>
         <v>515.17016655184011</v>
       </c>
       <c r="I26" s="1">
-        <f>G3</f>
+        <f t="shared" ref="I26:I33" si="10">G3</f>
         <v>10672.416666666666</v>
       </c>
       <c r="J26" s="1">
-        <f>G14</f>
+        <f t="shared" ref="J26:J33" si="11">G14</f>
         <v>859.82011383577571</v>
       </c>
       <c r="K26" s="1">
-        <f>I3</f>
+        <f t="shared" ref="K26:K33" si="12">I3</f>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f>I14</f>
+        <f t="shared" ref="L26:L33" si="13">I14</f>
         <v>0</v>
       </c>
     </row>
@@ -5268,27 +5893,27 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>H4</f>
+        <f t="shared" si="8"/>
         <v>3589.0833333333335</v>
       </c>
       <c r="H27" s="1">
-        <f>H15</f>
+        <f t="shared" si="9"/>
         <v>511.03116874540331</v>
       </c>
       <c r="I27" s="1">
-        <f>G4</f>
+        <f t="shared" si="10"/>
         <v>6292.083333333333</v>
       </c>
       <c r="J27" s="1">
-        <f>G15</f>
+        <f t="shared" si="11"/>
         <v>534.02690401998655</v>
       </c>
       <c r="K27" s="1">
-        <f>I4</f>
+        <f t="shared" si="12"/>
         <v>1366.9166666666667</v>
       </c>
       <c r="L27" s="1">
-        <f>I15</f>
+        <f t="shared" si="13"/>
         <v>340.34410969642255</v>
       </c>
     </row>
@@ -5309,27 +5934,27 @@
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <f>H5</f>
+        <f t="shared" si="8"/>
         <v>11516.75</v>
       </c>
       <c r="H28" s="1">
-        <f>H16</f>
+        <f t="shared" si="9"/>
         <v>867.28496701784911</v>
       </c>
       <c r="I28" s="1">
-        <f>G5</f>
+        <f t="shared" si="10"/>
         <v>6588.333333333333</v>
       </c>
       <c r="J28" s="1">
-        <f>G16</f>
+        <f t="shared" si="11"/>
         <v>570.11320424681082</v>
       </c>
       <c r="K28" s="1">
-        <f>I5</f>
+        <f t="shared" si="12"/>
         <v>4162.083333333333</v>
       </c>
       <c r="L28" s="1">
-        <f>I16</f>
+        <f t="shared" si="13"/>
         <v>517.7350360469195</v>
       </c>
     </row>
@@ -5350,27 +5975,27 @@
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <f>H6</f>
+        <f t="shared" si="8"/>
         <v>5016.166666666667</v>
       </c>
       <c r="H29" s="1">
-        <f>H17</f>
+        <f t="shared" si="9"/>
         <v>514.15971214784986</v>
       </c>
       <c r="I29" s="1">
-        <f>G6</f>
+        <f t="shared" si="10"/>
         <v>7308.666666666667</v>
       </c>
       <c r="J29" s="1">
-        <f>G17</f>
+        <f t="shared" si="11"/>
         <v>736.06667942901493</v>
       </c>
       <c r="K29" s="1">
-        <f>I6</f>
+        <f t="shared" si="12"/>
         <v>15144.333333333334</v>
       </c>
       <c r="L29" s="1">
-        <f>I17</f>
+        <f t="shared" si="13"/>
         <v>1342.3244387963359</v>
       </c>
     </row>
@@ -5391,27 +6016,27 @@
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <f>H7</f>
+        <f t="shared" si="8"/>
         <v>5829.333333333333</v>
       </c>
       <c r="H30" s="1">
-        <f>H18</f>
+        <f t="shared" si="9"/>
         <v>923.95324338388275</v>
       </c>
       <c r="I30" s="1">
-        <f>G7</f>
+        <f t="shared" si="10"/>
         <v>5572.666666666667</v>
       </c>
       <c r="J30" s="1">
-        <f>G18</f>
+        <f t="shared" si="11"/>
         <v>799.42918398193376</v>
       </c>
       <c r="K30" s="1">
-        <f>I7</f>
+        <f t="shared" si="12"/>
         <v>9998</v>
       </c>
       <c r="L30" s="1">
-        <f>I18</f>
+        <f t="shared" si="13"/>
         <v>1004.2116084498599</v>
       </c>
     </row>
@@ -5432,27 +6057,27 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <f>H8</f>
+        <f t="shared" si="8"/>
         <v>4053.0833333333335</v>
       </c>
       <c r="H31" s="1">
-        <f>H19</f>
+        <f t="shared" si="9"/>
         <v>538.29029931662694</v>
       </c>
       <c r="I31" s="1">
-        <f>G8</f>
+        <f t="shared" si="10"/>
         <v>11002.666666666666</v>
       </c>
       <c r="J31" s="1">
-        <f>G19</f>
+        <f t="shared" si="11"/>
         <v>2252.4971911102566</v>
       </c>
       <c r="K31" s="1">
-        <f>I8</f>
+        <f t="shared" si="12"/>
         <v>38248</v>
       </c>
       <c r="L31" s="1">
-        <f>I19</f>
+        <f t="shared" si="13"/>
         <v>6180.8606454264782</v>
       </c>
     </row>
@@ -5473,27 +6098,27 @@
         <v>6</v>
       </c>
       <c r="G32" s="1">
-        <f>H9</f>
+        <f t="shared" si="8"/>
         <v>5523.583333333333</v>
       </c>
       <c r="H32" s="1">
-        <f>H20</f>
+        <f t="shared" si="9"/>
         <v>746.3029734340912</v>
       </c>
       <c r="I32" s="1">
-        <f>G9</f>
+        <f t="shared" si="10"/>
         <v>8512.0833333333339</v>
       </c>
       <c r="J32" s="1">
-        <f>G20</f>
+        <f t="shared" si="11"/>
         <v>1096.2709412555885</v>
       </c>
       <c r="K32" s="1">
-        <f>I9</f>
+        <f t="shared" si="12"/>
         <v>9347.4166666666661</v>
       </c>
       <c r="L32" s="1">
-        <f>I20</f>
+        <f t="shared" si="13"/>
         <v>502.32271798620673</v>
       </c>
     </row>
@@ -5514,27 +6139,27 @@
         <v>7</v>
       </c>
       <c r="G33" s="1">
-        <f>H10</f>
+        <f t="shared" si="8"/>
         <v>9882.8333333333339</v>
       </c>
       <c r="H33" s="1">
-        <f>H21</f>
+        <f t="shared" si="9"/>
         <v>772.7906615414405</v>
       </c>
       <c r="I33" s="1">
-        <f>G10</f>
+        <f t="shared" si="10"/>
         <v>13781.166666666666</v>
       </c>
       <c r="J33" s="1">
-        <f>G21</f>
+        <f t="shared" si="11"/>
         <v>1916.0978490598325</v>
       </c>
       <c r="K33" s="1">
-        <f>I10</f>
+        <f t="shared" si="12"/>
         <v>11618.75</v>
       </c>
       <c r="L33" s="1">
-        <f>I21</f>
+        <f t="shared" si="13"/>
         <v>1288.8100991189158</v>
       </c>
     </row>
@@ -6806,4 +7431,29 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/evaluationStudy/analyses/WholeStudy.xlsx
+++ b/evaluationStudy/analyses/WholeStudy.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="28">
   <si>
     <t>[Within form] distant related traversal</t>
   </si>
@@ -95,6 +98,18 @@
   <si>
     <t>How unreasonable was amount of keypressing?</t>
   </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Keystrokes</t>
+  </si>
+  <si>
+    <t>Chibipoint (crosshairs ONLY)</t>
+  </si>
+  <si>
+    <t>Chibipoint (crosshairs AND flyouts)</t>
+  </si>
 </sst>
 </file>
 
@@ -109,6 +124,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,8 +184,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -216,7 +282,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -234,6 +300,31 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -251,6 +342,31 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,11 +879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2083333752"/>
-        <c:axId val="2083340664"/>
+        <c:axId val="2112624008"/>
+        <c:axId val="2112630920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083333752"/>
+        <c:axId val="2112624008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083340664"/>
+        <c:crossAx val="2112630920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083340664"/>
+        <c:axId val="2112630920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083333752"/>
+        <c:crossAx val="2112624008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,6 +1031,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1389,11 +1506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2083434696"/>
-        <c:axId val="2083440472"/>
+        <c:axId val="2112724888"/>
+        <c:axId val="2112730664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083434696"/>
+        <c:axId val="2112724888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,6 +1537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1435,7 +1553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083440472"/>
+        <c:crossAx val="2112730664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1443,7 +1561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083440472"/>
+        <c:axId val="2112730664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,13 +1584,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083434696"/>
+        <c:crossAx val="2112724888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1482,6 +1601,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1602,11 +1722,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2058415768"/>
-        <c:axId val="2058430760"/>
+        <c:axId val="2112777640"/>
+        <c:axId val="2112783032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2058415768"/>
+        <c:axId val="2112777640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,12 +1748,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058430760"/>
+        <c:crossAx val="2112783032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1641,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058430760"/>
+        <c:axId val="2112783032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -1665,13 +1786,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058415768"/>
+        <c:crossAx val="2112777640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1.0"/>
@@ -1679,6 +1801,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1728,6 +1851,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1786,11 +1910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2083473080"/>
-        <c:axId val="2083478488"/>
+        <c:axId val="2112813144"/>
+        <c:axId val="2112818552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083473080"/>
+        <c:axId val="2112813144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,12 +1936,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083478488"/>
+        <c:crossAx val="2112818552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1825,7 +1950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083478488"/>
+        <c:axId val="2112818552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1850,13 +1975,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083473080"/>
+        <c:crossAx val="2112813144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1.0"/>
@@ -1864,6 +1990,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1989,11 +2116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2082677512"/>
-        <c:axId val="2082672088"/>
+        <c:axId val="2112848808"/>
+        <c:axId val="2112854216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082677512"/>
+        <c:axId val="2112848808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,12 +2142,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082672088"/>
+        <c:crossAx val="2112854216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2028,7 +2156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082672088"/>
+        <c:axId val="2112854216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2038,6 +2166,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -2054,7 +2183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082677512"/>
+        <c:crossAx val="2112848808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1.0"/>
@@ -2062,6 +2191,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2597,11 +2727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090831336"/>
-        <c:axId val="2090837112"/>
+        <c:axId val="2111873144"/>
+        <c:axId val="2111867048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090831336"/>
+        <c:axId val="2111873144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090837112"/>
+        <c:crossAx val="2111867048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2667,7 +2797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090837112"/>
+        <c:axId val="2111867048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090831336"/>
+        <c:crossAx val="2111873144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3292,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5188,11 +5318,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="E33" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
@@ -7440,8 +7573,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7456,4 +7589,7846 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>73</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>38</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>23</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>71</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>41</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>71</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>63</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>73</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>59</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>63</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>27</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>71</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>23</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>73</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>27</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>33</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>71</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>23</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>73</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>46</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>23</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>77</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>138</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>23</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>73</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>35</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>23</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>71</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>23</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>28</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>23</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C289"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C289"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>26</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>26</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>26</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>26</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>26</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>26</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>26</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>26</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>26</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>26</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>26</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" t="s">
+        <v>26</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>26</v>
+      </c>
+      <c r="C257">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>27</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" t="s">
+        <v>26</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s">
+        <v>26</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" t="s">
+        <v>26</v>
+      </c>
+      <c r="C278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288" t="s">
+        <v>27</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>